--- a/BalanceSheet/DPZ_bal.xlsx
+++ b/BalanceSheet/DPZ_bal.xlsx
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1578000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>10743000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
@@ -3651,13 +3651,13 @@
         </is>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2171000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>808000.0</v>
+        <v>-8000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>702000.0</v>
+        <v>-9000000.0</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>-10000000.0</v>
@@ -5270,7 +5270,7 @@
         <v>3863000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>3867000000.0</v>
+        <v>3714565000.0</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3199038000.0</v>
@@ -5400,7 +5400,7 @@
         <v>4341000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>4351000000.0</v>
+        <v>4114449000.0</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3443036000.0</v>
